--- a/BackTest/2020-01-20 BackTest BTG.xlsx
+++ b/BackTest/2020-01-20 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9841.799378999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-10003.745079</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11991.985679</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-12092.985679</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-12076.764079</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-13069.627679</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-12783.902179</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-13203.132279</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-13695.74029358</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-13157.11440816</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-13164.66440816</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-13490.05990816</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-14250.17690816</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-14326.92640816</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-14618.44220816</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-15263.81280816</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-15263.81280816</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-15871.87420816</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-15871.87420816</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-16293.75220816</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-16066.78670816</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16377.65560816</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-16499.65560816</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-15634.65560816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-15630.65560816</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-15592.33880816</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-15592.33880816</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-15571.80420815999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-16057.45738235999</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-16083.67918235999</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-16083.38618235999</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-15962.94698235999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16034.36728235999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-15568.09108235999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-15289.73198235999</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-17023.20788235999</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-18331.03678235999</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-18331.03678235999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-18331.03678235999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-18584.26038235999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-18731.18138236</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-18731.18138236</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-18318.23428236</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-18531.93918236</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-20007.97218236</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-20078.49608236</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-20015.44288236</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-20013.60768236</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-21359.44518236</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-21392.77548236</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-21431.77548236</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-21412.65968236</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-21486.34788236</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-21535.84788236</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-21535.84788236</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-21519.24018236</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-21519.24018236</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-24924.41978236</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-24885.86838236</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-24712.48182267</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-23424.87347585</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-23636.92587585</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-23533.92587585</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-24534.07477584999</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-24503.50567585</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-24088.74402202</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-23772.24111566</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-23868.83551566</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-23848.83551566</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-24549.20751566</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-24529.24371566</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-25122.92671566</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-25295.25601566</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-25418.02961565999</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-25543.25361565999</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-26841.60451565999</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-26912.36361565999</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-27178.65481565999</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-27588.15481565999</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-27206.73631565999</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-27233.17031565999</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-26944.84351565999</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-26944.84351565999</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-27024.84351565999</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-26848.05542450999</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-26855.05542450999</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-27142.30854408999</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-26866.04769767999</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-26879.50759767999</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-26839.91445923999</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-26778.63283285999</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-30004.4368198</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-29520.85585119</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-29520.85585119</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-29190.47765119</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-28987.06905119</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-21035.02651962999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-20682.22361962999</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-20778.77591962999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-19870.51181962999</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-19870.69801962999</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-19775.55381962999</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-17581.37351962999</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-17163.15911962999</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-16806.56351962999</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-16989.34351962999</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-16455.15811962999</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-17240.68291962999</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-17078.89951962999</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-16602.62121962999</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-16618.35421962999</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-18205.09991962999</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-18433.50661962999</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-18824.41311962999</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-19540.54491962999</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-19444.33059807999</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-19838.46819807999</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-19779.83639807999</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-21249.28249807999</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-21779.83809807998</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-21724.18939807998</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-21317.89109807998</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-21297.19159807999</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-21297.19159807999</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-21251.76549807999</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-21252.90449807998</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-21245.47499807999</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-21321.69479807999</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-21281.98319807999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-21302.73599807998</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-21435.32349807999</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-21424.91179807999</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-21422.91179807999</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-21422.87469807998</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-21423.11739807998</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-21423.11739807998</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-23472.01749807998</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-23471.97079807998</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-23471.97079807998</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-23517.26489807998</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-23517.26489807998</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-23525.08591051998</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-23481.24861051998</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-23621.72691051998</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-23621.72691051998</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-23897.20091051998</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-23814.63612395998</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-23814.63612395998</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-23799.44702395998</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-23818.76142395998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-23815.47302395998</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-24535.38992395998</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-24548.60462395998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-24857.18432395998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-25174.57412395998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-25174.57412395998</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-26664.94612395998</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-26117.29352395998</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-26256.86352395998</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-26515.11182395997</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-26515.11182395997</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-26327.94642395997</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-26327.94642395997</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-26327.94642395997</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-26797.08202395997</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-26770.08202395997</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-26795.58502395997</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-26785.54502395997</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-26807.54502395997</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-26826.19082395997</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-26831.64382395997</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-27001.06822395997</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-27953.60022395997</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-27502.43352395997</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-27502.96132395997</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-27503.58602395997</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-27503.77932395997</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-27503.62852395997</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-27503.62852395997</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-27497.35812395997</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-27328.36907998997</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-26934.57817998997</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-27436.66397998997</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-26658.19567998997</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-26687.33767998997</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-26209.35222625997</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-26507.99182625997</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-27821.47635448997</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-27619.63785448997</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-27619.63785448997</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-24519.67655448998</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-27518.69065448998</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-27572.18375448998</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-25725.49154473998</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-25651.29590673998</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-25662.29590673998</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-25284.78040673997</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-25147.01490673998</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-25196.14939343997</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-26903.38652306997</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-25931.46624299997</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-25921.17424299997</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-20900.33494299997</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-20900.07254299997</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-20965.57964299997</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-20963.47514299997</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-20980.65264299997</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-20955.85984299997</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-20856.82114299997</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-21064.33584299998</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-20751.71514299997</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-20751.71514299997</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-20751.71514299997</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-20749.07514299997</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-20920.64054299997</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-20920.64054299997</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-20920.64054299997</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-20744.61024299997</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-20409.33524299997</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-21158.51594299997</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-20736.01374299997</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-20756.54964299997</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-21035.91508103997</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-21035.91508103997</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-20771.34028103997</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-20787.16158103997</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-21348.69288103997</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-21348.69288103997</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-21348.69288103997</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-21348.64288103997</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-21348.64288103997</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-21391.24188103997</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-21391.24188103997</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-21318.84068103997</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-21259.84068103997</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-21256.44365360997</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-21114.06807777997</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-21114.06807777997</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-25013.90447777997</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-24917.50447777997</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-25363.36627777997</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-25820.96557777997</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-25631.62767777997</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-25792.77767777997</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-25948.75057777997</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-25957.42977777997</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-26117.30347777998</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-26247.00027777998</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-25850.89777777997</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-25010.10076967997</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-25598.34956967997</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-25498.51756967997</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-26199.03306967998</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-26199.03306967998</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-26199.03306967998</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-26160.91626967998</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-26042.18036967998</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-26042.18036967998</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-26042.18036967998</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-26600.50206967998</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-26584.43076967998</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-26533.64406967998</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-28544.99006967998</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-30168.93606967998</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-31719.30486967998</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-33525.11051640998</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-35549.57561640997</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-37184.00404294997</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-37084.52644294997</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-36249.01174294997</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-36531.88448808998</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-36531.88448808998</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-36431.21348808998</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-36520.96068808997</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-36341.96598808997</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-37243.91828808997</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-39508.86878808997</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-40814.83318808996</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-42078.12788808996</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-41725.00898808996</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-41302.01698808996</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32560,11 +32560,17 @@
         <v>-53042.83615182997</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>11590</v>
+      </c>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32593,7 +32599,7 @@
         <v>-53268.43685182997</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I976" t="n">
         <v>11600</v>
@@ -32601,7 +32607,7 @@
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L976" t="n">
@@ -32632,7 +32638,7 @@
         <v>-52262.79237319998</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I977" t="n">
         <v>11590</v>
@@ -32671,7 +32677,7 @@
         <v>-52159.62897319998</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I978" t="n">
         <v>11600</v>
@@ -32710,7 +32716,7 @@
         <v>-54330.43057319998</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I979" t="n">
         <v>11650</v>
@@ -32749,7 +32755,7 @@
         <v>-54330.43057319998</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I980" t="n">
         <v>11600</v>
@@ -32788,7 +32794,7 @@
         <v>-54301.28357174998</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I981" t="n">
         <v>11600</v>
@@ -32827,9 +32833,11 @@
         <v>-54143.75596098998</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>11670</v>
+      </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -32864,9 +32872,11 @@
         <v>-56229.49587636998</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>11700</v>
+      </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -32938,11 +32948,9 @@
         <v>-55522.66367636998</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
-      </c>
-      <c r="I985" t="n">
-        <v>11600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -33051,9 +33059,11 @@
         <v>-53771.49538795998</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>11880</v>
+      </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -33125,9 +33135,11 @@
         <v>-53300.39372851998</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>11910</v>
+      </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -34864,9 +34876,11 @@
         <v>-51845.7547208</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>11820</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -34901,9 +34915,11 @@
         <v>-51618.51602079999</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>11760</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -34938,9 +34954,11 @@
         <v>-51608.7170208</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>11780</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -34975,7 +34993,7 @@
         <v>-51558.7170208</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1040" t="n">
         <v>11820</v>
@@ -35014,7 +35032,7 @@
         <v>-51558.7170208</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1041" t="n">
         <v>11840</v>
@@ -35053,9 +35071,11 @@
         <v>-51428.2933208</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>11840</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35090,9 +35110,11 @@
         <v>-51428.2933208</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>11930</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35127,9 +35149,11 @@
         <v>-51348.7307208</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>11930</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35164,9 +35188,11 @@
         <v>-51270.36758747</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>11990</v>
+      </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -35201,9 +35227,11 @@
         <v>-51705.01916187</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>12030</v>
+      </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -36437,6 +36465,6 @@
       <c r="M1079" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BTG.xlsx
+++ b/BackTest/2020-01-20 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9841.799378999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-10003.745079</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11991.985679</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-12092.985679</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-12076.764079</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-13069.627679</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-12783.902179</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-13203.132279</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-13695.74029358</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-13157.11440816</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-13164.66440816</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-13490.05990816</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-14250.17690816</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-14326.92640816</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-14618.44220816</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-15263.81280816</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-15263.81280816</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-15871.87420816</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-15871.87420816</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-16293.75220816</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-16066.78670816</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16377.65560816</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-16499.65560816</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-15634.65560816</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-15630.65560816</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-15592.33880816</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-15592.33880816</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-15571.80420815999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-15364.12188235999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-15393.58148235999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-15359.58148235999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-15404.02498235999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-18331.03678235999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-18331.03678235999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-18584.26038235999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-24712.48182267</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-24730.57119274</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-24666.28062576</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-24584.84860954</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-24563.09747585</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-24618.48707585</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-23424.87347585</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-24549.20751566</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-24529.24371566</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-25122.92671566</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-25295.25601566</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-25418.02961565999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-25543.25361565999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-26841.60451565999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-26912.36361565999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-27178.65481565999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-27588.15481565999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-27206.73631565999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-27233.17031565999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-27175.60151565999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-26944.84351565999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-33226.57856256</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-33191.14486256</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-32370.61076256</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-31368.73722026</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-31754.33962026</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-31129.36172026</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-31399.09512026</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-30892.26612026</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-31545.05312026</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-31408.45312026</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-29312.45862026</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-30448.94942026</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-30333.79752026</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-30696.93676259</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-30533.14646259</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-30788.28319763</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-30004.4368198</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-21035.02651962999</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-20682.22361962999</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-20778.77591962999</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-19870.51181962999</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-19870.69801962999</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-17581.37351962999</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-17163.15911962999</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-16806.56351962999</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-16989.34351962999</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-16455.15811962999</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-17240.68291962999</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-17078.89951962999</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-16602.62121962999</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-16618.35421962999</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-18205.09991962999</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-18433.50661962999</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-18824.41311962999</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-19540.54491962999</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-19444.33059807999</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-19838.46819807999</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-19779.83639807999</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-21249.28249807999</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-21779.83809807998</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-21724.18939807998</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-21317.89109807998</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-21297.19159807999</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-21297.19159807999</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-21251.76549807999</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-21252.90449807998</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-21245.47499807999</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-21321.69479807999</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-21281.98319807999</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-21302.73599807998</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-21435.32349807999</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-21424.91179807999</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-21422.91179807999</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-21422.87469807998</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-21423.11739807998</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-21423.11739807998</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-23472.01749807998</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-23471.97079807998</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-23471.97079807998</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-23517.26489807998</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-23517.26489807998</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-23525.08591051998</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-23481.24861051998</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-23621.72691051998</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-23621.72691051998</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-23510.68421051998</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-23511.05821051998</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-23897.20091051998</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-23814.63612395998</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-23814.63612395998</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-23799.44702395998</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-23818.76142395998</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-23815.47302395998</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-24535.38992395998</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-24548.60462395998</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-24857.18432395998</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-25174.57412395998</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-25174.57412395998</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-26664.94612395998</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-26117.29352395998</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-26256.86352395998</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-26515.11182395997</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-26515.11182395997</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-26327.94642395997</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-26327.94642395997</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-26327.94642395997</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-26797.08202395997</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-26770.08202395997</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-26795.58502395997</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-26785.54502395997</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-26807.54502395997</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-26826.19082395997</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-26831.64382395997</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-27001.06822395997</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-27953.60022395997</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-27502.43352395997</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-27502.96132395997</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-27503.58602395997</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-27503.77932395997</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-25284.78040673997</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-25147.01490673998</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-25196.14939343997</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-26903.38652306997</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-20751.71514299997</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-20751.71514299997</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-20749.07514299997</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-20920.64054299997</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-20920.64054299997</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-20920.64054299997</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-20744.61024299997</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-20409.33524299997</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-21158.51594299997</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-20756.54964299997</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-21035.91508103997</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-21035.91508103997</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-20771.34028103997</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-20787.16158103997</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-21348.69288103997</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-21348.69288103997</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-21348.69288103997</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-21348.64288103997</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-21348.64288103997</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-21391.24188103997</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-21391.24188103997</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-21318.84068103997</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-21259.84068103997</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-21256.44365360997</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-21114.06807777997</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-21114.06807777997</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-25013.90447777997</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-25363.36627777997</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-25820.96557777997</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-25631.62767777997</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-25792.77767777997</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-25948.75057777997</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-25957.42977777997</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-26117.30347777998</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-26247.00027777998</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -32560,2220 +32560,1964 @@
         <v>-53042.83615182997</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
-      </c>
-      <c r="I975" t="n">
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="n">
+        <v>1</v>
+      </c>
+      <c r="M975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="n">
         <v>11590</v>
       </c>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
+      <c r="C976" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D976" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E976" t="n">
+        <v>11570</v>
+      </c>
+      <c r="F976" t="n">
+        <v>225.6007</v>
+      </c>
+      <c r="G976" t="n">
+        <v>-53268.43685182997</v>
+      </c>
+      <c r="H976" t="n">
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
+      <c r="L976" t="n">
+        <v>1</v>
+      </c>
+      <c r="M976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C977" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D977" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E977" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F977" t="n">
+        <v>1005.64447863</v>
+      </c>
+      <c r="G977" t="n">
+        <v>-52262.79237319998</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="n">
+        <v>1</v>
+      </c>
+      <c r="M977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C978" t="n">
+        <v>11650</v>
+      </c>
+      <c r="D978" t="n">
+        <v>11770</v>
+      </c>
+      <c r="E978" t="n">
+        <v>11650</v>
+      </c>
+      <c r="F978" t="n">
+        <v>103.1634</v>
+      </c>
+      <c r="G978" t="n">
+        <v>-52159.62897319998</v>
+      </c>
+      <c r="H978" t="n">
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="n">
+        <v>1</v>
+      </c>
+      <c r="M978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C979" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D979" t="n">
+        <v>11740</v>
+      </c>
+      <c r="E979" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F979" t="n">
+        <v>2170.8016</v>
+      </c>
+      <c r="G979" t="n">
+        <v>-54330.43057319998</v>
+      </c>
+      <c r="H979" t="n">
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="n">
+        <v>1</v>
+      </c>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>11720</v>
+      </c>
+      <c r="C980" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D980" t="n">
+        <v>11720</v>
+      </c>
+      <c r="E980" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1.2155</v>
+      </c>
+      <c r="G980" t="n">
+        <v>-54330.43057319998</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
+        <v>11710</v>
+      </c>
+      <c r="C981" t="n">
+        <v>11670</v>
+      </c>
+      <c r="D981" t="n">
+        <v>11720</v>
+      </c>
+      <c r="E981" t="n">
+        <v>11670</v>
+      </c>
+      <c r="F981" t="n">
+        <v>29.14700145</v>
+      </c>
+      <c r="G981" t="n">
+        <v>-54301.28357174998</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="n">
+        <v>1</v>
+      </c>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C982" t="n">
+        <v>11700</v>
+      </c>
+      <c r="D982" t="n">
+        <v>11710</v>
+      </c>
+      <c r="E982" t="n">
+        <v>11690</v>
+      </c>
+      <c r="F982" t="n">
+        <v>157.52761076</v>
+      </c>
+      <c r="G982" t="n">
+        <v>-54143.75596098998</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="n">
+        <v>1</v>
+      </c>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C983" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D983" t="n">
+        <v>11700</v>
+      </c>
+      <c r="E983" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F983" t="n">
+        <v>2085.73991538</v>
+      </c>
+      <c r="G983" t="n">
+        <v>-56229.49587636998</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="n">
+        <v>1</v>
+      </c>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="n">
+        <v>11660</v>
+      </c>
+      <c r="C984" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D984" t="n">
+        <v>11680</v>
+      </c>
+      <c r="E984" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F984" t="n">
+        <v>857.82834137</v>
+      </c>
+      <c r="G984" t="n">
+        <v>-56229.49587636998</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="n">
+        <v>1</v>
+      </c>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C985" t="n">
+        <v>11680</v>
+      </c>
+      <c r="D985" t="n">
+        <v>11680</v>
+      </c>
+      <c r="E985" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F985" t="n">
+        <v>706.8321999999999</v>
+      </c>
+      <c r="G985" t="n">
+        <v>-55522.66367636998</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="n">
+        <v>1</v>
+      </c>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="n">
+        <v>11620</v>
+      </c>
+      <c r="C986" t="n">
+        <v>11690</v>
+      </c>
+      <c r="D986" t="n">
+        <v>11690</v>
+      </c>
+      <c r="E986" t="n">
+        <v>11620</v>
+      </c>
+      <c r="F986" t="n">
+        <v>189.3595</v>
+      </c>
+      <c r="G986" t="n">
+        <v>-55333.30417636998</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C987" t="n">
+        <v>11880</v>
+      </c>
+      <c r="D987" t="n">
+        <v>11910</v>
+      </c>
+      <c r="E987" t="n">
+        <v>11700</v>
+      </c>
+      <c r="F987" t="n">
+        <v>475.72208839</v>
+      </c>
+      <c r="G987" t="n">
+        <v>-54857.58208797998</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>11880</v>
+      </c>
+      <c r="C988" t="n">
+        <v>11900</v>
+      </c>
+      <c r="D988" t="n">
+        <v>11910</v>
+      </c>
+      <c r="E988" t="n">
+        <v>11810</v>
+      </c>
+      <c r="F988" t="n">
+        <v>1086.08670002</v>
+      </c>
+      <c r="G988" t="n">
+        <v>-53771.49538795998</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C989" t="n">
+        <v>11910</v>
+      </c>
+      <c r="D989" t="n">
+        <v>11910</v>
+      </c>
+      <c r="E989" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F989" t="n">
+        <v>283.21645944</v>
+      </c>
+      <c r="G989" t="n">
+        <v>-53488.27892851998</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>11930</v>
+      </c>
+      <c r="C990" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D990" t="n">
+        <v>12030</v>
+      </c>
+      <c r="E990" t="n">
+        <v>11930</v>
+      </c>
+      <c r="F990" t="n">
+        <v>187.8852</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-53300.39372851998</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>12030</v>
+      </c>
+      <c r="C991" t="n">
+        <v>12070</v>
+      </c>
+      <c r="D991" t="n">
+        <v>12070</v>
+      </c>
+      <c r="E991" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F991" t="n">
+        <v>611.64721333</v>
+      </c>
+      <c r="G991" t="n">
+        <v>-52688.74651518998</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>12060</v>
+      </c>
+      <c r="C992" t="n">
+        <v>12220</v>
+      </c>
+      <c r="D992" t="n">
+        <v>12220</v>
+      </c>
+      <c r="E992" t="n">
+        <v>12060</v>
+      </c>
+      <c r="F992" t="n">
+        <v>1447.40938667</v>
+      </c>
+      <c r="G992" t="n">
+        <v>-51241.33712851998</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="n">
+        <v>1</v>
+      </c>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>12220</v>
+      </c>
+      <c r="C993" t="n">
+        <v>12350</v>
+      </c>
+      <c r="D993" t="n">
+        <v>12360</v>
+      </c>
+      <c r="E993" t="n">
+        <v>12100</v>
+      </c>
+      <c r="F993" t="n">
+        <v>1406.6234696</v>
+      </c>
+      <c r="G993" t="n">
+        <v>-49834.71365891998</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="n">
+        <v>1</v>
+      </c>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>12340</v>
+      </c>
+      <c r="C994" t="n">
+        <v>12300</v>
+      </c>
+      <c r="D994" t="n">
+        <v>12340</v>
+      </c>
+      <c r="E994" t="n">
+        <v>12300</v>
+      </c>
+      <c r="F994" t="n">
+        <v>1225.80538297</v>
+      </c>
+      <c r="G994" t="n">
+        <v>-51060.51904188998</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="n">
+        <v>1</v>
+      </c>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C995" t="n">
+        <v>12230</v>
+      </c>
+      <c r="D995" t="n">
+        <v>12300</v>
+      </c>
+      <c r="E995" t="n">
+        <v>12220</v>
+      </c>
+      <c r="F995" t="n">
+        <v>553.95953358</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-51614.47857546998</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>12220</v>
+      </c>
+      <c r="C996" t="n">
+        <v>12360</v>
+      </c>
+      <c r="D996" t="n">
+        <v>12360</v>
+      </c>
+      <c r="E996" t="n">
+        <v>12220</v>
+      </c>
+      <c r="F996" t="n">
+        <v>1236.29892351</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-50378.17965195997</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>12210</v>
+      </c>
+      <c r="C997" t="n">
+        <v>12210</v>
+      </c>
+      <c r="D997" t="n">
+        <v>12360</v>
+      </c>
+      <c r="E997" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F997" t="n">
+        <v>454.41820077</v>
+      </c>
+      <c r="G997" t="n">
+        <v>-50832.59785272997</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>12210</v>
+      </c>
+      <c r="C998" t="n">
+        <v>12140</v>
+      </c>
+      <c r="D998" t="n">
+        <v>12210</v>
+      </c>
+      <c r="E998" t="n">
+        <v>12110</v>
+      </c>
+      <c r="F998" t="n">
+        <v>146.0566</v>
+      </c>
+      <c r="G998" t="n">
+        <v>-50978.65445272998</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>12150</v>
+      </c>
+      <c r="C999" t="n">
+        <v>12150</v>
+      </c>
+      <c r="D999" t="n">
+        <v>12150</v>
+      </c>
+      <c r="E999" t="n">
+        <v>12150</v>
+      </c>
+      <c r="F999" t="n">
+        <v>22.8544</v>
+      </c>
+      <c r="G999" t="n">
+        <v>-50955.80005272998</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>12180</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>12070</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>12180</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>12060</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>271.6914</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>-51227.49145272998</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>12060</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>12060</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>12060</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>12050</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>117.7083</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>-51345.19975272998</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>12020</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>12030</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>12030</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>12020</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>23.5196</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>-51368.71935272998</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>12050</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>12130</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>12130</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>12050</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>180.02357607</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>-51188.69577665998</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>12130</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>12160</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>12190</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>12130</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>82.96705879</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>-51105.72871786998</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>12160</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>12160</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>12160</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>12130</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>540.48970592</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>-51105.72871786998</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>12130</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>12120</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>12130</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>12120</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>1.38961507</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>-51107.11833293999</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>12080</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>12150</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>12150</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>12050</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>205.28317501</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-50901.83515792999</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>12080</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>12030</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>12080</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>12030</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>157.9278</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>-51059.76295792998</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>12030</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>11930</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>12030</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>11930</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>398.5582</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-51458.32115792998</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>11930</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>11810</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>11990</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>408.89829541</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-51867.21945333998</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>11810</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>11820</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>11820</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>872.9673</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-50994.25215333998</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>11850</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>11850</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>11850</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>11790</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>370.8124</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-50623.43975333998</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>11850</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>11890</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>11890</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>11850</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>30.02983254</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>-50593.40992079998</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>11890</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>11890</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>11890</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>11890</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>235.6022</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>-50593.40992079998</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>11890</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>11890</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>11890</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>11890</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>196.9724</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>-50593.40992079998</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>11850</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>11850</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>11850</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>11850</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>12.1672</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>-50605.57712079999</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>11840</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>11840</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>11840</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>11840</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>43.8754</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>-50649.45252079998</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>11830</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>11840</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>11840</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>11830</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>47.0354</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>-50649.45252079998</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>11810</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>11810</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>11810</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>32.0548</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>-50681.50732079998</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>11840</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>11810</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>11840</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>11810</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>180.9666</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>-50681.50732079998</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>11800</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>11790</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>11800</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>11790</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>-50981.50732079998</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>11790</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>11870</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>11870</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>11790</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>120.0681</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>-50861.43922079998</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>11870</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>11820</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>11870</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>11820</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>20.5025</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>-50881.94172079999</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>11810</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>11820</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>11860</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>11810</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>81.4918</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>-50881.94172079999</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>11840</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>11840</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>11840</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>11840</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>9.706899999999999</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>-50872.23482079999</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>11860</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>11860</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>11860</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>11860</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>12.7586</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>-50859.47622079999</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>11890</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>11890</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>11890</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>11890</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>-50851.06622079998</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>11900</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>177.8886</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>-50673.17762079999</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>11900</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>-50673.17762079999</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>11900</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>-50673.17762079999</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>11860</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>11860</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>7.979</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>-50681.15662079999</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>11840</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>11830</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>11860</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>11830</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>97.5448</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>-50778.70142079999</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>11820</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>11810</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>11820</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>11810</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>120.677</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>-50899.37842079999</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>11790</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>11750</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>11790</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>11750</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>764.7865</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>-51664.16492079999</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>11810</v>
+      </c>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L975" t="n">
-        <v>1</v>
-      </c>
-      <c r="M975" t="inlineStr"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>974</v>
-      </c>
-      <c r="B976" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C976" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D976" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E976" t="n">
-        <v>11570</v>
-      </c>
-      <c r="F976" t="n">
-        <v>225.6007</v>
-      </c>
-      <c r="G976" t="n">
-        <v>-53268.43685182997</v>
-      </c>
-      <c r="H976" t="n">
-        <v>1</v>
-      </c>
-      <c r="I976" t="n">
-        <v>11600</v>
-      </c>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L976" t="n">
-        <v>1</v>
-      </c>
-      <c r="M976" t="inlineStr"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>975</v>
-      </c>
-      <c r="B977" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C977" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D977" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E977" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F977" t="n">
-        <v>1005.64447863</v>
-      </c>
-      <c r="G977" t="n">
-        <v>-52262.79237319998</v>
-      </c>
-      <c r="H977" t="n">
-        <v>1</v>
-      </c>
-      <c r="I977" t="n">
-        <v>11590</v>
-      </c>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L977" t="n">
-        <v>1</v>
-      </c>
-      <c r="M977" t="inlineStr"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>976</v>
-      </c>
-      <c r="B978" t="n">
-        <v>11650</v>
-      </c>
-      <c r="C978" t="n">
-        <v>11650</v>
-      </c>
-      <c r="D978" t="n">
-        <v>11770</v>
-      </c>
-      <c r="E978" t="n">
-        <v>11650</v>
-      </c>
-      <c r="F978" t="n">
-        <v>103.1634</v>
-      </c>
-      <c r="G978" t="n">
-        <v>-52159.62897319998</v>
-      </c>
-      <c r="H978" t="n">
-        <v>1</v>
-      </c>
-      <c r="I978" t="n">
-        <v>11600</v>
-      </c>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L978" t="n">
-        <v>1</v>
-      </c>
-      <c r="M978" t="inlineStr"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>977</v>
-      </c>
-      <c r="B979" t="n">
-        <v>11650</v>
-      </c>
-      <c r="C979" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D979" t="n">
-        <v>11740</v>
-      </c>
-      <c r="E979" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F979" t="n">
-        <v>2170.8016</v>
-      </c>
-      <c r="G979" t="n">
-        <v>-54330.43057319998</v>
-      </c>
-      <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>11650</v>
-      </c>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L979" t="n">
-        <v>1</v>
-      </c>
-      <c r="M979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>11720</v>
-      </c>
-      <c r="C980" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D980" t="n">
-        <v>11720</v>
-      </c>
-      <c r="E980" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F980" t="n">
-        <v>1.2155</v>
-      </c>
-      <c r="G980" t="n">
-        <v>-54330.43057319998</v>
-      </c>
-      <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>11600</v>
-      </c>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L980" t="n">
-        <v>1</v>
-      </c>
-      <c r="M980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>11710</v>
-      </c>
-      <c r="C981" t="n">
-        <v>11670</v>
-      </c>
-      <c r="D981" t="n">
-        <v>11720</v>
-      </c>
-      <c r="E981" t="n">
-        <v>11670</v>
-      </c>
-      <c r="F981" t="n">
-        <v>29.14700145</v>
-      </c>
-      <c r="G981" t="n">
-        <v>-54301.28357174998</v>
-      </c>
-      <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>11600</v>
-      </c>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L981" t="n">
-        <v>1</v>
-      </c>
-      <c r="M981" t="inlineStr"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>11700</v>
-      </c>
-      <c r="C982" t="n">
-        <v>11700</v>
-      </c>
-      <c r="D982" t="n">
-        <v>11710</v>
-      </c>
-      <c r="E982" t="n">
-        <v>11690</v>
-      </c>
-      <c r="F982" t="n">
-        <v>157.52761076</v>
-      </c>
-      <c r="G982" t="n">
-        <v>-54143.75596098998</v>
-      </c>
-      <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>11670</v>
-      </c>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L982" t="n">
-        <v>1</v>
-      </c>
-      <c r="M982" t="inlineStr"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>11700</v>
-      </c>
-      <c r="C983" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D983" t="n">
-        <v>11700</v>
-      </c>
-      <c r="E983" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F983" t="n">
-        <v>2085.73991538</v>
-      </c>
-      <c r="G983" t="n">
-        <v>-56229.49587636998</v>
-      </c>
-      <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>11700</v>
-      </c>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L983" t="n">
-        <v>1</v>
-      </c>
-      <c r="M983" t="inlineStr"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>11660</v>
-      </c>
-      <c r="C984" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D984" t="n">
-        <v>11680</v>
-      </c>
-      <c r="E984" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F984" t="n">
-        <v>857.82834137</v>
-      </c>
-      <c r="G984" t="n">
-        <v>-56229.49587636998</v>
-      </c>
-      <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L984" t="n">
-        <v>1</v>
-      </c>
-      <c r="M984" t="inlineStr"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C985" t="n">
-        <v>11680</v>
-      </c>
-      <c r="D985" t="n">
-        <v>11680</v>
-      </c>
-      <c r="E985" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F985" t="n">
-        <v>706.8321999999999</v>
-      </c>
-      <c r="G985" t="n">
-        <v>-55522.66367636998</v>
-      </c>
-      <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L985" t="n">
-        <v>1</v>
-      </c>
-      <c r="M985" t="inlineStr"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>11620</v>
-      </c>
-      <c r="C986" t="n">
-        <v>11690</v>
-      </c>
-      <c r="D986" t="n">
-        <v>11690</v>
-      </c>
-      <c r="E986" t="n">
-        <v>11620</v>
-      </c>
-      <c r="F986" t="n">
-        <v>189.3595</v>
-      </c>
-      <c r="G986" t="n">
-        <v>-55333.30417636998</v>
-      </c>
-      <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L986" t="n">
-        <v>1</v>
-      </c>
-      <c r="M986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>11700</v>
-      </c>
-      <c r="C987" t="n">
-        <v>11880</v>
-      </c>
-      <c r="D987" t="n">
-        <v>11910</v>
-      </c>
-      <c r="E987" t="n">
-        <v>11700</v>
-      </c>
-      <c r="F987" t="n">
-        <v>475.72208839</v>
-      </c>
-      <c r="G987" t="n">
-        <v>-54857.58208797998</v>
-      </c>
-      <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
-      <c r="M987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>11880</v>
-      </c>
-      <c r="C988" t="n">
-        <v>11900</v>
-      </c>
-      <c r="D988" t="n">
-        <v>11910</v>
-      </c>
-      <c r="E988" t="n">
-        <v>11810</v>
-      </c>
-      <c r="F988" t="n">
-        <v>1086.08670002</v>
-      </c>
-      <c r="G988" t="n">
-        <v>-53771.49538795998</v>
-      </c>
-      <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>11880</v>
-      </c>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L988" t="n">
-        <v>1</v>
-      </c>
-      <c r="M988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>11900</v>
-      </c>
-      <c r="C989" t="n">
-        <v>11910</v>
-      </c>
-      <c r="D989" t="n">
-        <v>11910</v>
-      </c>
-      <c r="E989" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F989" t="n">
-        <v>283.21645944</v>
-      </c>
-      <c r="G989" t="n">
-        <v>-53488.27892851998</v>
-      </c>
-      <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>11930</v>
-      </c>
-      <c r="C990" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D990" t="n">
-        <v>12030</v>
-      </c>
-      <c r="E990" t="n">
-        <v>11930</v>
-      </c>
-      <c r="F990" t="n">
-        <v>187.8852</v>
-      </c>
-      <c r="G990" t="n">
-        <v>-53300.39372851998</v>
-      </c>
-      <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>11910</v>
-      </c>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>12030</v>
-      </c>
-      <c r="C991" t="n">
-        <v>12070</v>
-      </c>
-      <c r="D991" t="n">
-        <v>12070</v>
-      </c>
-      <c r="E991" t="n">
-        <v>12000</v>
-      </c>
-      <c r="F991" t="n">
-        <v>611.64721333</v>
-      </c>
-      <c r="G991" t="n">
-        <v>-52688.74651518998</v>
-      </c>
-      <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>12060</v>
-      </c>
-      <c r="C992" t="n">
-        <v>12220</v>
-      </c>
-      <c r="D992" t="n">
-        <v>12220</v>
-      </c>
-      <c r="E992" t="n">
-        <v>12060</v>
-      </c>
-      <c r="F992" t="n">
-        <v>1447.40938667</v>
-      </c>
-      <c r="G992" t="n">
-        <v>-51241.33712851998</v>
-      </c>
-      <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L992" t="n">
-        <v>1</v>
-      </c>
-      <c r="M992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>12220</v>
-      </c>
-      <c r="C993" t="n">
-        <v>12350</v>
-      </c>
-      <c r="D993" t="n">
-        <v>12360</v>
-      </c>
-      <c r="E993" t="n">
-        <v>12100</v>
-      </c>
-      <c r="F993" t="n">
-        <v>1406.6234696</v>
-      </c>
-      <c r="G993" t="n">
-        <v>-49834.71365891998</v>
-      </c>
-      <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L993" t="n">
-        <v>1</v>
-      </c>
-      <c r="M993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>12340</v>
-      </c>
-      <c r="C994" t="n">
-        <v>12300</v>
-      </c>
-      <c r="D994" t="n">
-        <v>12340</v>
-      </c>
-      <c r="E994" t="n">
-        <v>12300</v>
-      </c>
-      <c r="F994" t="n">
-        <v>1225.80538297</v>
-      </c>
-      <c r="G994" t="n">
-        <v>-51060.51904188998</v>
-      </c>
-      <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L994" t="n">
-        <v>1</v>
-      </c>
-      <c r="M994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>12300</v>
-      </c>
-      <c r="C995" t="n">
-        <v>12230</v>
-      </c>
-      <c r="D995" t="n">
-        <v>12300</v>
-      </c>
-      <c r="E995" t="n">
-        <v>12220</v>
-      </c>
-      <c r="F995" t="n">
-        <v>553.95953358</v>
-      </c>
-      <c r="G995" t="n">
-        <v>-51614.47857546998</v>
-      </c>
-      <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>12220</v>
-      </c>
-      <c r="C996" t="n">
-        <v>12360</v>
-      </c>
-      <c r="D996" t="n">
-        <v>12360</v>
-      </c>
-      <c r="E996" t="n">
-        <v>12220</v>
-      </c>
-      <c r="F996" t="n">
-        <v>1236.29892351</v>
-      </c>
-      <c r="G996" t="n">
-        <v>-50378.17965195997</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>12210</v>
-      </c>
-      <c r="C997" t="n">
-        <v>12210</v>
-      </c>
-      <c r="D997" t="n">
-        <v>12360</v>
-      </c>
-      <c r="E997" t="n">
-        <v>12210</v>
-      </c>
-      <c r="F997" t="n">
-        <v>454.41820077</v>
-      </c>
-      <c r="G997" t="n">
-        <v>-50832.59785272997</v>
-      </c>
-      <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>12210</v>
-      </c>
-      <c r="C998" t="n">
-        <v>12140</v>
-      </c>
-      <c r="D998" t="n">
-        <v>12210</v>
-      </c>
-      <c r="E998" t="n">
-        <v>12110</v>
-      </c>
-      <c r="F998" t="n">
-        <v>146.0566</v>
-      </c>
-      <c r="G998" t="n">
-        <v>-50978.65445272998</v>
-      </c>
-      <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>1</v>
-      </c>
-      <c r="M998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>12150</v>
-      </c>
-      <c r="C999" t="n">
-        <v>12150</v>
-      </c>
-      <c r="D999" t="n">
-        <v>12150</v>
-      </c>
-      <c r="E999" t="n">
-        <v>12150</v>
-      </c>
-      <c r="F999" t="n">
-        <v>22.8544</v>
-      </c>
-      <c r="G999" t="n">
-        <v>-50955.80005272998</v>
-      </c>
-      <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>1</v>
-      </c>
-      <c r="M999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>12180</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>12070</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>12180</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>12060</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>271.6914</v>
-      </c>
-      <c r="G1000" t="n">
-        <v>-51227.49145272998</v>
-      </c>
-      <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>12060</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>12060</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>12060</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>12050</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>117.7083</v>
-      </c>
-      <c r="G1001" t="n">
-        <v>-51345.19975272998</v>
-      </c>
-      <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>12020</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>12030</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>12030</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>12020</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>23.5196</v>
-      </c>
-      <c r="G1002" t="n">
-        <v>-51368.71935272998</v>
-      </c>
-      <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1002" t="inlineStr"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>12050</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>12130</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>12130</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>12050</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>180.02357607</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>-51188.69577665998</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>12130</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>12160</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>12190</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>82.96705879</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>-51105.72871786998</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>12160</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>12160</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>12160</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>540.48970592</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>-51105.72871786998</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>12130</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>12120</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>12130</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>12120</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>1.38961507</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>-51107.11833293999</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>12080</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>12150</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>12150</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>12050</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>205.28317501</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>-50901.83515792999</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>12080</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>12030</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>12080</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>12030</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>157.9278</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>-51059.76295792998</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>12030</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>11930</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>12030</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>11930</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>398.5582</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-51458.32115792998</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>11930</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>11810</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>11990</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>11800</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>408.89829541</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-51867.21945333998</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>11810</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>11820</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>11820</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>11800</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>872.9673</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-50994.25215333998</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>11850</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>11850</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>11850</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>11790</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>370.8124</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>-50623.43975333998</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>11850</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>11890</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>11890</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>11850</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>30.02983254</v>
-      </c>
-      <c r="G1013" t="n">
-        <v>-50593.40992079998</v>
-      </c>
-      <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>11890</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>11890</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>11890</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>11890</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>235.6022</v>
-      </c>
-      <c r="G1014" t="n">
-        <v>-50593.40992079998</v>
-      </c>
-      <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>11890</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>11890</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>11890</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>11890</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>196.9724</v>
-      </c>
-      <c r="G1015" t="n">
-        <v>-50593.40992079998</v>
-      </c>
-      <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>11850</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>11850</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>11850</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>11850</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>12.1672</v>
-      </c>
-      <c r="G1016" t="n">
-        <v>-50605.57712079999</v>
-      </c>
-      <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>11840</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>11840</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>11840</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>11840</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>43.8754</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>-50649.45252079998</v>
-      </c>
-      <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>11830</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>11840</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>11840</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>11830</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>47.0354</v>
-      </c>
-      <c r="G1018" t="n">
-        <v>-50649.45252079998</v>
-      </c>
-      <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>11810</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>11810</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>11810</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>11800</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>32.0548</v>
-      </c>
-      <c r="G1019" t="n">
-        <v>-50681.50732079998</v>
-      </c>
-      <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>11840</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>11810</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>11840</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>11810</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>180.9666</v>
-      </c>
-      <c r="G1020" t="n">
-        <v>-50681.50732079998</v>
-      </c>
-      <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>11800</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>11790</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>11800</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>11790</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>300</v>
-      </c>
-      <c r="G1021" t="n">
-        <v>-50981.50732079998</v>
-      </c>
-      <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>11790</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>11870</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>11870</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>11790</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>120.0681</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>-50861.43922079998</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1022" t="inlineStr"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>11870</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>11820</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>11870</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>11820</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>20.5025</v>
-      </c>
-      <c r="G1023" t="n">
-        <v>-50881.94172079999</v>
-      </c>
-      <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1023" t="inlineStr"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>11810</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>11820</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>11860</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>11810</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>81.4918</v>
-      </c>
-      <c r="G1024" t="n">
-        <v>-50881.94172079999</v>
-      </c>
-      <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>11840</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>11840</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>11840</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>11840</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>9.706899999999999</v>
-      </c>
-      <c r="G1025" t="n">
-        <v>-50872.23482079999</v>
-      </c>
-      <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1025" t="inlineStr"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>11860</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>11860</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>11860</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>11860</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>12.7586</v>
-      </c>
-      <c r="G1026" t="n">
-        <v>-50859.47622079999</v>
-      </c>
-      <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1026" t="inlineStr"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>11890</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>11890</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>11890</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>11890</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="G1027" t="n">
-        <v>-50851.06622079998</v>
-      </c>
-      <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1027" t="inlineStr"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>11900</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>11900</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>11900</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>177.8886</v>
-      </c>
-      <c r="G1028" t="n">
-        <v>-50673.17762079999</v>
-      </c>
-      <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1028" t="inlineStr"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>11900</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>11900</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>11900</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>9</v>
-      </c>
-      <c r="G1029" t="n">
-        <v>-50673.17762079999</v>
-      </c>
-      <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1029" t="inlineStr"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>11900</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>11900</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>11900</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1030" t="n">
-        <v>-50673.17762079999</v>
-      </c>
-      <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>11900</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>11860</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>11900</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>11860</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>7.979</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>-50681.15662079999</v>
-      </c>
-      <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1031" t="inlineStr"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>11840</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>11830</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>11860</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>11830</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>97.5448</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>-50778.70142079999</v>
-      </c>
-      <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>11820</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>11810</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>11820</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>11810</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>120.677</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>-50899.37842079999</v>
-      </c>
-      <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>11790</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>11750</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>11790</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>11750</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>764.7865</v>
-      </c>
-      <c r="G1034" t="n">
-        <v>-51664.16492079999</v>
-      </c>
-      <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34802,9 +34546,11 @@
         <v>-51664.16492079999</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>11750</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -34839,9 +34585,11 @@
         <v>-51657.02292079999</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>11750</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35266,9 +35014,11 @@
         <v>-51712.42276187</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>12000</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35303,9 +35053,11 @@
         <v>-51759.63356187</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>11930</v>
+      </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35340,9 +35092,11 @@
         <v>-51724.76762951</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>11870</v>
+      </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -35377,9 +35131,11 @@
         <v>-51534.89944551999</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>12000</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -36465,6 +36221,6 @@
       <c r="M1079" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BTG.xlsx
+++ b/BackTest/2020-01-20 BackTest BTG.xlsx
@@ -2959,7 +2959,7 @@
         <v>-15364.12188235999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-15393.58148235999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-15359.58148235999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-15404.02498235999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-24712.48182267</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-24730.57119274</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-24666.28062576</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-24584.84860954</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-24563.09747585</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-24618.48707585</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-23424.87347585</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-24549.20751566</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-24529.24371566</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-25122.92671566</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-25295.25601566</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-25418.02961565999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-25543.25361565999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-26841.60451565999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-26912.36361565999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-27178.65481565999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-27588.15481565999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-27206.73631565999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-27233.17031565999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-27175.60151565999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-26944.84351565999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-33226.57856256</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-33191.14486256</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-32370.61076256</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-31368.73722026</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-31754.33962026</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-31129.36172026</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-31399.09512026</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-30892.26612026</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-31545.05312026</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-31408.45312026</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-29312.45862026</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-30448.94942026</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-30333.79752026</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-30696.93676259</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-30533.14646259</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-30788.28319763</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-30004.4368198</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-21035.02651962999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-20682.22361962999</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-20642.83451962999</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-20767.01081962999</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-20778.77591962999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-19870.51181962999</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-19870.69801962999</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-19775.55381962999</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-17581.37351962999</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-17163.15911962999</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-16806.56351962999</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-16989.34351962999</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-16455.15811962999</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-17240.68291962999</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-17078.89951962999</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-16602.62121962999</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-16618.35421962999</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-18205.09991962999</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-18433.50661962999</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-18824.41311962999</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-19540.54491962999</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-19444.33059807999</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-19838.46819807999</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -32560,11 +32560,17 @@
         <v>-53042.83615182997</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>11590</v>
+      </c>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32593,11 +32599,17 @@
         <v>-53268.43685182997</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>11600</v>
+      </c>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32626,11 +32638,17 @@
         <v>-52262.79237319998</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>11590</v>
+      </c>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32659,11 +32677,17 @@
         <v>-52159.62897319998</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>11600</v>
+      </c>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32692,11 +32716,17 @@
         <v>-54330.43057319998</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>11650</v>
+      </c>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32729,7 +32759,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32762,7 +32796,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32791,11 +32829,17 @@
         <v>-54143.75596098998</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>11670</v>
+      </c>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32824,11 +32868,17 @@
         <v>-56229.49587636998</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>11700</v>
+      </c>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32861,7 +32911,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32894,7 +32948,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32927,7 +32985,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32960,7 +33022,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32993,7 +33059,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33026,7 +33096,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33059,7 +33133,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33092,7 +33170,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33125,7 +33207,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33158,7 +33244,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33191,7 +33281,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33224,7 +33318,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +33355,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33290,7 +33392,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +33429,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33356,7 +33466,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33389,7 +33503,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33422,7 +33540,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33455,7 +33577,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33488,7 +33614,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33521,7 +33651,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33554,7 +33688,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33587,7 +33725,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +33762,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +33799,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33686,7 +33836,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +33873,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33748,11 +33906,17 @@
         <v>-50994.25215333998</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>11810</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +33949,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33814,11 +33982,17 @@
         <v>-50593.40992079998</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>11850</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33847,11 +34021,17 @@
         <v>-50593.40992079998</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>11890</v>
+      </c>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33880,11 +34060,17 @@
         <v>-50593.40992079998</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>11890</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +34103,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33946,11 +34136,17 @@
         <v>-50649.45252079998</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>11850</v>
+      </c>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +34179,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34012,11 +34212,17 @@
         <v>-50681.50732079998</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>11840</v>
+      </c>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +34255,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34078,11 +34288,17 @@
         <v>-50981.50732079998</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>11810</v>
+      </c>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +34331,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34144,11 +34364,17 @@
         <v>-50881.94172079999</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>11870</v>
+      </c>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34177,11 +34403,17 @@
         <v>-50881.94172079999</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>11820</v>
+      </c>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34210,11 +34442,17 @@
         <v>-50872.23482079999</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>11820</v>
+      </c>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34243,11 +34481,17 @@
         <v>-50859.47622079999</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>11840</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34276,11 +34520,17 @@
         <v>-50851.06622079998</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>11860</v>
+      </c>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34309,11 +34559,17 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>11890</v>
+      </c>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34342,11 +34598,17 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>11900</v>
+      </c>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34375,11 +34637,17 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>11900</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34408,11 +34676,17 @@
         <v>-50681.15662079999</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>11900</v>
+      </c>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34441,11 +34715,17 @@
         <v>-50778.70142079999</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>11860</v>
+      </c>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34474,11 +34754,17 @@
         <v>-50899.37842079999</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>11830</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34515,7 +34801,7 @@
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1034" t="n">
@@ -35207,9 +35493,11 @@
         <v>-51551.91944551999</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>12090</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35244,9 +35532,11 @@
         <v>-51654.82768205999</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>12090</v>
+      </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35281,9 +35571,11 @@
         <v>-51799.01789885999</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>12060</v>
+      </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -35318,9 +35610,11 @@
         <v>-51799.01789885999</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>12020</v>
+      </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -35355,9 +35649,11 @@
         <v>-51727.79101228999</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>12020</v>
+      </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -35392,9 +35688,11 @@
         <v>-51719.34683729999</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>12070</v>
+      </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -35429,9 +35727,11 @@
         <v>-51724.37773729999</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>12080</v>
+      </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
@@ -35466,9 +35766,11 @@
         <v>-50976.90199885999</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>12020</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -35503,9 +35805,11 @@
         <v>-50559.92876552999</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>12090</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -35540,9 +35844,11 @@
         <v>-52466.97782295999</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>12150</v>
+      </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -35577,9 +35883,11 @@
         <v>-52466.97782295999</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>12090</v>
+      </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -35614,9 +35922,11 @@
         <v>-52466.97782295999</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>12090</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -35651,9 +35961,11 @@
         <v>-52470.54782295999</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>12090</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -35688,9 +36000,11 @@
         <v>-52607.26782295999</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>12060</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -35725,9 +36039,11 @@
         <v>-52607.26782295999</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>12020</v>
+      </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -35762,9 +36078,11 @@
         <v>-52607.26782295999</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>12020</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -35799,9 +36117,11 @@
         <v>-52507.26782295999</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>12020</v>
+      </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35836,9 +36156,11 @@
         <v>-52077.31238798999</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>12090</v>
+      </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35873,9 +36195,11 @@
         <v>-52077.31238798999</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>12150</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -35910,9 +36234,11 @@
         <v>-52083.31107001999</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>12150</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -35947,9 +36273,11 @@
         <v>-52167.39287001999</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>12140</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -35984,9 +36312,11 @@
         <v>-52256.87977001999</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>12100</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36021,9 +36351,11 @@
         <v>-52251.54675986999</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>12060</v>
+      </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
@@ -36058,9 +36390,11 @@
         <v>-52696.62945986999</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>12100</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36095,9 +36429,11 @@
         <v>-52696.62945986999</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>12000</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36132,9 +36468,11 @@
         <v>-52101.28378344999</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>12000</v>
+      </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36169,9 +36507,11 @@
         <v>-52168.28051743999</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>12130</v>
+      </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36206,9 +36546,11 @@
         <v>-52172.32321743999</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>12120</v>
+      </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
